--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A2FDD-D1DC-44E1-A289-02D99884F74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085E845-08A7-45AB-BDAA-FF2C76F9685B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.240913237326358</v>
+        <v>0.13237350103577511</v>
       </c>
       <c r="C2" s="1">
-        <v>0.75079353057206499</v>
+        <v>0.75311090782945911</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1861099673279708</v>
+        <v>0.1163642619345014</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1329331462981401</v>
+        <v>9.1708810634297241E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9.7602678302267154E-2</v>
+        <v>7.0452873774489555E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,47 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>9.3234501317328827E-2</v>
+        <v>6.6745420738513958E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.03571035946317E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.8747983545819331E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.508471830256631E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.2621732868468142E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.8654501400396337E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085E845-08A7-45AB-BDAA-FF2C76F9685B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3914ACAE-0B4D-45E4-B3BB-8BAFAD1B82A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3914ACAE-0B4D-45E4-B3BB-8BAFAD1B82A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC486F-ED77-4AF1-81B0-C834232299DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC486F-ED77-4AF1-81B0-C834232299DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4061FC-DBD9-4661-BA5F-BBA91E34C036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.13237350103577511</v>
+        <v>0.132373501035775</v>
       </c>
       <c r="C2" s="1">
         <v>0.75311090782945911</v>
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>9.1708810634297241E-2</v>
+        <v>9.17088106342972E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7.0452873774489555E-2</v>
+        <v>7.0452873774489611E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>6.6745420738513958E-2</v>
+        <v>6.6745420738514125E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6.03571035946317E-2</v>
+        <v>6.0357103594631561E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5.8747983545819331E-2</v>
+        <v>5.8747983545819317E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>5.508471830256631E-2</v>
+        <v>5.50847183025664E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5.2621732868468142E-2</v>
+        <v>5.2621732868468073E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4.8654501400396337E-2</v>
+        <v>4.8654501400396323E-2</v>
       </c>
     </row>
   </sheetData>
